--- a/needssupersense.xlsx
+++ b/needssupersense.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanmannion/streusle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanmannion/streuslefork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC5AD56-51C4-7F49-A975-85351C9B8C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495994E8-81E1-664A-ACC1-61DB7B892F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-8600" windowWidth="19200" windowHeight="21140" xr2:uid="{CDF02A42-14E4-BE4D-A4F6-E1B76B7F33CB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{CDF02A42-14E4-BE4D-A4F6-E1B76B7F33CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="449">
   <si>
     <t># _sentid</t>
   </si>
@@ -1779,7 +1779,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8:F9"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1932,6 +1932,9 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>294</v>
       </c>
@@ -1950,6 +1953,7 @@
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>324</v>
       </c>
@@ -2106,6 +2110,9 @@
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="H16" s="1" t="s">
         <v>29</v>
       </c>
@@ -2124,6 +2131,9 @@
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="H17" s="1" t="s">
         <v>412</v>
       </c>
@@ -2142,6 +2152,7 @@
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F18" s="1"/>
       <c r="H18" s="1" t="s">
         <v>264</v>
       </c>
